--- a/Template Data/Data Dictionary.xlsx
+++ b/Template Data/Data Dictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="From Paper" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>Values</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Others (Snowy,Other,Icy,Muddy)</t>
   </si>
   <si>
-    <t>Others(Cloudy, Snow, Fog, Sleeting, Mist, Other)</t>
-  </si>
-  <si>
     <t>Straight (level, grade, hillcrest)</t>
   </si>
   <si>
@@ -397,12 +394,36 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>[Behavior 1, Behavior 2, Behavior 3]</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Others(Snow, Fog, Sleeting, Mist, Other)</t>
+  </si>
+  <si>
+    <t>Inattention to Roadway</t>
+  </si>
+  <si>
+    <t>Passenger in adjacent seat</t>
+  </si>
+  <si>
+    <t>Talking/Singing/Listening</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -610,6 +631,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -645,6 +683,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,7 +1335,7 @@
     <col min="16" max="16" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1289,49 +1344,49 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>16</v>
@@ -1430,13 +1485,13 @@
         <v>31</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>35</v>
@@ -1487,16 +1542,16 @@
         <v>48</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>53</v>
@@ -1507,8 +1562,8 @@
       <c r="R5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>56</v>
+      <c r="S5" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>57</v>
@@ -1537,25 +1592,25 @@
         <v>102</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="T6" s="4"/>
     </row>
@@ -1577,20 +1632,22 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
         <v>66</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="T7" s="4"/>
     </row>
@@ -1617,8 +1674,12 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="2:20">
@@ -1643,7 +1704,9 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="2:20">
@@ -1668,7 +1731,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="2:20">
@@ -1723,6 +1788,11 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
+    <row r="13" spans="2:20">
+      <c r="R13" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="14" spans="2:20">
       <c r="I14" t="s">
         <v>93</v>

--- a/Template Data/Data Dictionary.xlsx
+++ b/Template Data/Data Dictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="From Paper" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
   <si>
     <t>Values</t>
   </si>
@@ -418,12 +418,30 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Behavior1</t>
+  </si>
+  <si>
+    <t>Behavior2</t>
+  </si>
+  <si>
+    <t>Behavior3</t>
+  </si>
+  <si>
+    <t>Distraction1</t>
+  </si>
+  <si>
+    <t>Distraction2</t>
+  </si>
+  <si>
+    <t>Distraction3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -631,23 +649,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -683,23 +684,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1310,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T19"/>
+  <dimension ref="B2:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,10 +1320,12 @@
     <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,16 +1375,28 @@
         <v>125</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:24">
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>10001</v>
@@ -1452,10 +1450,22 @@
         <v>22</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:24">
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -1506,13 +1516,25 @@
         <v>38</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:24">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1562,14 +1584,26 @@
       <c r="R5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:24">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1610,11 +1644,23 @@
         <v>63</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="V6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1647,11 +1693,23 @@
         <v>66</v>
       </c>
       <c r="S7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="V7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1678,11 +1736,23 @@
         <v>75</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="V8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1704,12 +1774,20 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="V9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1731,12 +1809,20 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="V10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1762,8 +1848,12 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="9">
         <v>8</v>
       </c>
@@ -1787,23 +1877,27 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="R13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:24">
       <c r="I14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:24">
       <c r="I15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:24">
       <c r="I16" t="s">
         <v>95</v>
       </c>
